--- a/Proyectos/Viaticos/05. Calidad/Viaticos-AuditoriaDesarrollo-160330.xlsx
+++ b/Proyectos/Viaticos/05. Calidad/Viaticos-AuditoriaDesarrollo-160330.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="7665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="7665" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="166">
   <si>
     <t>Checklist de Auditorías</t>
   </si>
@@ -546,7 +546,7 @@
     <t>Mayra Tejeda</t>
   </si>
   <si>
-    <t>¿Se tienen definidos los tipos de prueba?</t>
+    <t>No está definido un estatus para las pruebas</t>
   </si>
 </sst>
 </file>
@@ -678,7 +678,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -724,12 +724,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,6 +1171,9 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1244,9 +1241,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1320,7 +1314,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1401,11 +1394,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="65431424"/>
-        <c:axId val="65432960"/>
+        <c:axId val="109535616"/>
+        <c:axId val="109537152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65431424"/>
+        <c:axId val="109535616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1446,14 +1439,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65432960"/>
+        <c:crossAx val="109537152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65432960"/>
+        <c:axId val="109537152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1503,7 +1496,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65431424"/>
+        <c:crossAx val="109535616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1545,7 +1538,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1586,7 +1579,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1660,7 +1652,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1679,11 +1671,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="65445248"/>
-        <c:axId val="65455232"/>
+        <c:axId val="109565824"/>
+        <c:axId val="109567360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65445248"/>
+        <c:axId val="109565824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1724,14 +1716,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65455232"/>
+        <c:crossAx val="109567360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65455232"/>
+        <c:axId val="109567360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1781,7 +1773,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65445248"/>
+        <c:crossAx val="109565824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1823,7 +1815,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1859,7 +1851,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1928,11 +1919,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="67838720"/>
-        <c:axId val="67840256"/>
+        <c:axId val="109874176"/>
+        <c:axId val="109888256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67838720"/>
+        <c:axId val="109874176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1973,14 +1964,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67840256"/>
+        <c:crossAx val="109888256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67840256"/>
+        <c:axId val="109888256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2030,7 +2021,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67838720"/>
+        <c:crossAx val="109874176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2072,7 +2063,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2108,7 +2099,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2177,11 +2167,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="67901312"/>
-        <c:axId val="67902848"/>
+        <c:axId val="109482368"/>
+        <c:axId val="109483904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67901312"/>
+        <c:axId val="109482368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2222,14 +2212,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67902848"/>
+        <c:crossAx val="109483904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67902848"/>
+        <c:axId val="109483904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2279,7 +2269,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67901312"/>
+        <c:crossAx val="109482368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2321,7 +2311,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2537,14 +2527,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>429874</xdr:colOff>
+      <xdr:colOff>410824</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>15264</xdr:rowOff>
     </xdr:to>
@@ -2563,7 +2553,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6715125" y="47625"/>
+          <a:off x="7267575" y="47625"/>
           <a:ext cx="2487274" cy="824889"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3000,76 +2990,76 @@
     <row r="1" spans="1:6" ht="67.5" customHeight="1"/>
     <row r="2" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="3" spans="1:6" ht="21" customHeight="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
     </row>
     <row r="5" spans="1:6" ht="15.75">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="B6" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="80"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="B7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="83"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="83">
+      <c r="C8" s="84">
         <v>42451</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="86"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="87" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="86"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1">
       <c r="B13" s="7" t="s">
@@ -3154,11 +3144,11 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
     </row>
     <row r="21" spans="2:8" ht="16.5" customHeight="1">
       <c r="B21" s="14" t="s">
@@ -3233,49 +3223,49 @@
         <v>Plan de Pruebas</v>
       </c>
       <c r="C26" s="9">
-        <f>COUNTA(Productos!D65:D70)</f>
+        <f>COUNTA(Productos!D65:D69)</f>
         <v>4</v>
       </c>
       <c r="D26" s="10">
-        <f>COUNTIF((Productos!D65:D70),"x")/(COUNTIF((Productos!D65:D70),"x")+COUNTIF((Productos!E65:E70),"x"))</f>
-        <v>0.66666666666666663</v>
+        <f>COUNTIF((Productos!D65:D69),"x")/(COUNTIF((Productos!D65:D69),"x")+COUNTIF((Productos!E65:E69),"x"))</f>
+        <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="16.5" customHeight="1">
       <c r="B27" s="8" t="str">
-        <f>Productos!B72</f>
+        <f>Productos!B71</f>
         <v>Carta de Aceptación</v>
       </c>
       <c r="C27" s="9">
-        <f>COUNTA(Productos!D73:D76)</f>
+        <f>COUNTA(Productos!D72:D75)</f>
         <v>0</v>
       </c>
       <c r="D27" s="10" t="e">
-        <f>COUNTIF((Productos!D73:D76),"x")/(COUNTIF((Productos!D73:D76),"x")+COUNTIF((Productos!E73:E76),"x"))</f>
+        <f>COUNTIF((Productos!D72:D75),"x")/(COUNTIF((Productos!D72:D75),"x")+COUNTIF((Productos!E72:E75),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="16.5" customHeight="1">
       <c r="B28" s="8" t="str">
-        <f>Productos!B78</f>
+        <f>Productos!B77</f>
         <v>Reporte de Monitoreo</v>
       </c>
       <c r="C28" s="9">
-        <f>COUNTA(Productos!D79:D85)</f>
+        <f>COUNTA(Productos!D78:D84)</f>
         <v>0</v>
       </c>
       <c r="D28" s="10" t="e">
-        <f>COUNTIF((Productos!D79:D85),"x")/(COUNTIF((Productos!D79:D85),"x")+COUNTIF((Productos!E79:E85),"x"))</f>
+        <f>COUNTIF((Productos!D78:D84),"x")/(COUNTIF((Productos!D78:D84),"x")+COUNTIF((Productos!E78:E84),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="19.5" customHeight="1"/>
     <row r="30" spans="2:8" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="B30" s="73" t="s">
+      <c r="B30" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
       <c r="E30" s="2"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -3340,11 +3330,11 @@
     </row>
     <row r="35" spans="2:5" s="3" customFormat="1"/>
     <row r="36" spans="2:5" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B36" s="72" t="s">
+      <c r="B36" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="2:5" s="3" customFormat="1" ht="16.5">
@@ -3428,8 +3418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:C22"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -3452,22 +3442,22 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="2:7" ht="21" customHeight="1">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91" t="s">
+      <c r="C3" s="92"/>
+      <c r="D3" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91" t="s">
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="21" customHeight="1">
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
       <c r="D4" s="53" t="s">
         <v>12</v>
       </c>
@@ -3477,17 +3467,17 @@
       <c r="F4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="91"/>
+      <c r="G4" s="92"/>
     </row>
     <row r="5" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
     </row>
     <row r="6" spans="2:7" s="24" customFormat="1" ht="16.5">
       <c r="B6" s="20">
@@ -3580,14 +3570,14 @@
     </row>
     <row r="12" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="13" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
     </row>
     <row r="14" spans="2:7" s="24" customFormat="1" ht="16.5">
       <c r="B14" s="20">
@@ -3695,14 +3685,14 @@
     </row>
     <row r="21" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="22" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="89"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
     </row>
     <row r="23" spans="2:7" s="24" customFormat="1" ht="16.5">
       <c r="B23" s="20">
@@ -3817,10 +3807,10 @@
     </row>
     <row r="31" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="32" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B32" s="87" t="s">
+      <c r="B32" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="87"/>
+      <c r="C32" s="88"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
@@ -3879,14 +3869,14 @@
     </row>
     <row r="37" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="38" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B38" s="87" t="s">
+      <c r="B38" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
     </row>
     <row r="39" spans="2:7" s="24" customFormat="1" ht="17.25" customHeight="1">
       <c r="B39" s="20">
@@ -3993,10 +3983,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4005,7 +3995,7 @@
     <col min="2" max="2" width="3" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.140625" style="1" customWidth="1"/>
     <col min="4" max="6" width="11.42578125" style="1"/>
-    <col min="7" max="7" width="27.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -4021,23 +4011,23 @@
     </row>
     <row r="3" spans="1:7" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A3" s="34"/>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91" t="s">
+      <c r="C3" s="92"/>
+      <c r="D3" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91" t="s">
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="34"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
       <c r="D4" s="53" t="s">
         <v>12</v>
       </c>
@@ -4047,18 +4037,18 @@
       <c r="F4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="91"/>
+      <c r="G4" s="92"/>
     </row>
     <row r="5" spans="1:7" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="28"/>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
     </row>
     <row r="6" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A6" s="32"/>
@@ -4244,14 +4234,14 @@
     </row>
     <row r="18" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A18" s="43"/>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
     </row>
     <row r="19" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A19" s="32"/>
@@ -4471,14 +4461,14 @@
     </row>
     <row r="33" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A33" s="43"/>
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
     </row>
     <row r="34" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A34" s="32"/>
@@ -4666,14 +4656,14 @@
     </row>
     <row r="46" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A46" s="43"/>
-      <c r="B46" s="90" t="s">
+      <c r="B46" s="91" t="s">
         <v>161</v>
       </c>
-      <c r="C46" s="90"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="90"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="91"/>
+      <c r="F46" s="91"/>
+      <c r="G46" s="91"/>
     </row>
     <row r="47" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A47" s="32"/>
@@ -4941,14 +4931,14 @@
     </row>
     <row r="64" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A64" s="43"/>
-      <c r="B64" s="95" t="s">
+      <c r="B64" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="C64" s="95"/>
-      <c r="D64" s="90"/>
-      <c r="E64" s="90"/>
-      <c r="F64" s="90"/>
-      <c r="G64" s="90"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="91"/>
+      <c r="G64" s="91"/>
     </row>
     <row r="65" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A65" s="32"/>
@@ -4956,12 +4946,12 @@
         <v>1</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22" t="s">
-        <v>155</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E65" s="22"/>
       <c r="F65" s="22"/>
       <c r="G65" s="23"/>
     </row>
@@ -4972,7 +4962,7 @@
         <v>2</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D66" s="22" t="s">
         <v>155</v>
@@ -4984,11 +4974,11 @@
     <row r="67" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A67" s="32"/>
       <c r="B67" s="48">
-        <f t="shared" ref="B67:B70" si="4">B66+1</f>
+        <f t="shared" ref="B67:B69" si="4">B66+1</f>
         <v>3</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="D67" s="22" t="s">
         <v>155</v>
@@ -5004,7 +4994,7 @@
         <v>4</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="D68" s="22" t="s">
         <v>155</v>
@@ -5013,65 +5003,65 @@
       <c r="F68" s="22"/>
       <c r="G68" s="23"/>
     </row>
-    <row r="69" spans="1:7" s="33" customFormat="1" ht="16.5">
+    <row r="69" spans="1:7" s="33" customFormat="1" ht="15" customHeight="1">
       <c r="A69" s="32"/>
       <c r="B69" s="48">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="D69" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="E69" s="22"/>
+        <v>123</v>
+      </c>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22" t="s">
+        <v>155</v>
+      </c>
       <c r="F69" s="22"/>
-      <c r="G69" s="23"/>
+      <c r="G69" s="23" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="70" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A70" s="32"/>
-      <c r="B70" s="48">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="F70" s="22"/>
-      <c r="G70" s="23"/>
-    </row>
-    <row r="71" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A71" s="32"/>
-      <c r="B71" s="48"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-    </row>
-    <row r="72" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A72" s="43"/>
-      <c r="B72" s="90" t="s">
+      <c r="B70" s="48"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+    </row>
+    <row r="71" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A71" s="43"/>
+      <c r="B71" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="90"/>
-      <c r="D72" s="90"/>
-      <c r="E72" s="90"/>
-      <c r="F72" s="90"/>
-      <c r="G72" s="90"/>
+      <c r="C71" s="91"/>
+      <c r="D71" s="91"/>
+      <c r="E71" s="91"/>
+      <c r="F71" s="91"/>
+      <c r="G71" s="91"/>
+    </row>
+    <row r="72" spans="1:7" s="33" customFormat="1" ht="16.5">
+      <c r="A72" s="32"/>
+      <c r="B72" s="48">
+        <v>1</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="23"/>
     </row>
     <row r="73" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A73" s="32"/>
       <c r="B73" s="48">
-        <v>1</v>
+        <f>B72+1</f>
+        <v>2</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D73" s="22"/>
       <c r="E73" s="22"/>
@@ -5081,11 +5071,11 @@
     <row r="74" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A74" s="32"/>
       <c r="B74" s="48">
-        <f>B73+1</f>
-        <v>2</v>
+        <f t="shared" ref="B74:B75" si="5">B73+1</f>
+        <v>3</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
@@ -5095,11 +5085,11 @@
     <row r="75" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A75" s="32"/>
       <c r="B75" s="48">
-        <f t="shared" ref="B75:B76" si="5">B74+1</f>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
@@ -5108,44 +5098,43 @@
     </row>
     <row r="76" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A76" s="32"/>
-      <c r="B76" s="48">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="23"/>
-    </row>
-    <row r="77" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A77" s="32"/>
-      <c r="B77" s="48"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41"/>
-    </row>
-    <row r="78" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A78" s="43"/>
-      <c r="B78" s="90" t="s">
+      <c r="B76" s="48"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="41"/>
+    </row>
+    <row r="77" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A77" s="43"/>
+      <c r="B77" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="C78" s="90"/>
-      <c r="D78" s="90"/>
-      <c r="E78" s="90"/>
-      <c r="F78" s="90"/>
-      <c r="G78" s="90"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="91"/>
+      <c r="E77" s="91"/>
+      <c r="F77" s="91"/>
+      <c r="G77" s="91"/>
+    </row>
+    <row r="78" spans="1:7" s="33" customFormat="1" ht="16.5">
+      <c r="B78" s="46">
+        <v>1</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="23"/>
     </row>
     <row r="79" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="B79" s="46">
-        <v>1</v>
+        <f>B78+1</f>
+        <v>2</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
@@ -5154,11 +5143,11 @@
     </row>
     <row r="80" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="B80" s="46">
-        <f>B79+1</f>
-        <v>2</v>
+        <f t="shared" ref="B80:B84" si="6">B79+1</f>
+        <v>3</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="D80" s="22"/>
       <c r="E80" s="22"/>
@@ -5167,11 +5156,11 @@
     </row>
     <row r="81" spans="2:7" s="33" customFormat="1" ht="16.5">
       <c r="B81" s="46">
-        <f t="shared" ref="B81:B85" si="6">B80+1</f>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D81" s="22"/>
       <c r="E81" s="22"/>
@@ -5181,10 +5170,10 @@
     <row r="82" spans="2:7" s="33" customFormat="1" ht="16.5">
       <c r="B82" s="46">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D82" s="22"/>
       <c r="E82" s="22"/>
@@ -5194,10 +5183,10 @@
     <row r="83" spans="2:7" s="33" customFormat="1" ht="16.5">
       <c r="B83" s="46">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D83" s="22"/>
       <c r="E83" s="22"/>
@@ -5207,34 +5196,21 @@
     <row r="84" spans="2:7" s="33" customFormat="1" ht="16.5">
       <c r="B84" s="46">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D84" s="22"/>
       <c r="E84" s="22"/>
       <c r="F84" s="22"/>
       <c r="G84" s="23"/>
     </row>
-    <row r="85" spans="2:7" s="33" customFormat="1" ht="16.5">
-      <c r="B85" s="46">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="C85" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="23"/>
-    </row>
-    <row r="86" spans="2:7">
-      <c r="C86" s="31"/>
+    <row r="85" spans="2:7">
+      <c r="C85" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="23">
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="B5:C5"/>
@@ -5251,16 +5227,15 @@
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
     <mergeCell ref="F64:G64"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
   </mergeCells>
-  <conditionalFormatting sqref="C86">
+  <conditionalFormatting sqref="C85">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!,TRUE,FALSE)</formula>
     </cfRule>
@@ -5297,16 +5272,16 @@
   <sheetData>
     <row r="1" spans="2:12" ht="67.5" customHeight="1"/>
     <row r="3" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91" t="s">
+      <c r="C3" s="92"/>
+      <c r="D3" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91" t="s">
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="49"/>
@@ -5316,8 +5291,8 @@
       <c r="L3" s="49"/>
     </row>
     <row r="4" spans="2:12" ht="17.25">
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
       <c r="D4" s="53" t="s">
         <v>12</v>
       </c>
@@ -5327,7 +5302,7 @@
       <c r="F4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="91"/>
+      <c r="G4" s="92"/>
       <c r="H4" s="49"/>
       <c r="I4" s="49"/>
       <c r="J4" s="49"/>
@@ -5335,14 +5310,14 @@
       <c r="L4" s="49"/>
     </row>
     <row r="5" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
       <c r="H5" s="54"/>
       <c r="I5" s="54"/>
       <c r="J5" s="54"/>
@@ -5428,14 +5403,14 @@
       <c r="L9" s="49"/>
     </row>
     <row r="10" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
       <c r="H10" s="54"/>
       <c r="I10" s="56"/>
       <c r="J10" s="56"/>
@@ -5545,14 +5520,14 @@
       <c r="L15" s="49"/>
     </row>
     <row r="16" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
       <c r="H16" s="54"/>
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
@@ -5630,22 +5605,22 @@
   <sheetData>
     <row r="1" spans="2:7" ht="67.5" customHeight="1"/>
     <row r="3" spans="2:7" ht="17.25">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91" t="s">
+      <c r="C3" s="92"/>
+      <c r="D3" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91" t="s">
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="17.25">
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
       <c r="D4" s="53" t="s">
         <v>12</v>
       </c>
@@ -5655,17 +5630,17 @@
       <c r="F4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="91"/>
+      <c r="G4" s="92"/>
     </row>
     <row r="5" spans="2:7" ht="15.75">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
     </row>
     <row r="6" spans="2:7" s="33" customFormat="1" ht="16.5">
       <c r="B6" s="20">
@@ -5738,14 +5713,14 @@
       <c r="G10" s="41"/>
     </row>
     <row r="11" spans="2:7" ht="19.5" customHeight="1">
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
     </row>
     <row r="12" spans="2:7" s="33" customFormat="1" ht="16.5">
       <c r="B12" s="64">
@@ -5862,14 +5837,14 @@
       <c r="G20" s="41"/>
     </row>
     <row r="21" spans="2:7" ht="21" customHeight="1">
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
     </row>
     <row r="22" spans="2:7" s="33" customFormat="1" ht="16.5">
       <c r="B22" s="20">
